--- a/upload/学生信息管理 (1).xlsx
+++ b/upload/学生信息管理 (1).xlsx
@@ -1,21 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="80" yWindow="440" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="1" r:id="rId1"/>
     <sheet name="附加信息" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>家庭住址</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>监护人名字</t>
+  </si>
+  <si>
+    <t>福建省漳州市</t>
+  </si>
+  <si>
+    <t>林建辉</t>
+  </si>
+  <si>
+    <t>ygivug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -42,13 +102,18 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="undefined" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -373,92 +438,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>姓名</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>性别</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>年龄</v>
-      </c>
-      <c r="D1" s="1" t="str">
-        <v>出生日期</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>林东洲</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>男</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>1995/04/27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>林锦蓉</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>女</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="str">
-        <v>1996</v>
-      </c>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>家庭住址</v>
-      </c>
-      <c r="B1" s="1" t="str">
-        <v>手机号</v>
-      </c>
-      <c r="C1" s="1" t="str">
-        <v>监护人名字</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>福建省漳州市</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>13234045130</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>林建辉</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>漳州</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>1232312323</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>林某某</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>